--- a/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Dom_Da_Sub_D1.xlsx
+++ b/CrowdSourcingStudy/Dialogues_test/Dialogues with exit condition/dialoguesCrows/Dom_Da_Sub_D1.xlsx
@@ -24,15 +24,15 @@
     <t xml:space="preserve">&lt;b&gt; &lt;br&gt; A: "Let's choose a noisy restaurant." &lt;br&gt;
  &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Noisy is my least preferred ambiance." &lt;br&gt;
 &lt;br&gt; A: "Let's go to the Le Gramophone restaurant." &lt;br&gt;
- &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quit restaurants over noisy." &lt;br&gt;
+ &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet restaurants over noisy." &lt;br&gt;
 &lt;br&gt; A: "Let's go to the Papelli restaurant." &lt;br&gt;
- &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quit restaurants over noisy." &lt;br&gt;
+ &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet restaurants over noisy." &lt;br&gt;
 &lt;br&gt; A: "Let's go to the Salento restaurant." &lt;br&gt;
- &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quit restaurants over noisy." &lt;br&gt;
+ &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet restaurants over noisy." &lt;br&gt;
 &lt;br&gt; A: "Let's go to the Cappadoce restaurant." &lt;br&gt;
- &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quit restaurants over noisy." &lt;br&gt;
+ &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet restaurants over noisy." &lt;br&gt;
 &lt;br&gt; A: "Let's go to the Le Janissaire restaurant." &lt;br&gt;
- &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quit restaurants over noisy." &lt;br&gt;
+ &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "I prefer quiet restaurants over noisy." &lt;br&gt;
 &lt;br&gt; A: "Sorry, but I no longer want to go for dinner!!" &lt;br&gt;
  &lt;br&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;b&gt;B&lt;/b&gt;: "Ok." &lt;br&gt; &lt;/b&gt;
 </t>
